--- a/Word Frequency Query Results.xlsx
+++ b/Word Frequency Query Results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>response</t>
   </si>
@@ -46,9 +46,6 @@
     <t>perpetuate</t>
   </si>
   <si>
-    <t>bad</t>
-  </si>
-  <si>
     <t>change</t>
   </si>
   <si>
@@ -61,9 +58,6 @@
     <t>management</t>
   </si>
   <si>
-    <t>lunch</t>
-  </si>
-  <si>
     <t>story</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>iterative</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
     <t>empower</t>
   </si>
   <si>
@@ -94,13 +85,7 @@
     <t>unlocking</t>
   </si>
   <si>
-    <t>sandwiches</t>
-  </si>
-  <si>
     <t>Weighted Percentage (%)</t>
-  </si>
-  <si>
-    <t>bringing</t>
   </si>
   <si>
     <t>stakeholders</t>
@@ -158,13 +143,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF0F0F0"/>
+        <fgColor rgb="FFFCFCFC"/>
         <bgColor auto="1" indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFCFCFC"/>
+        <fgColor rgb="FFF0F0F0"/>
         <bgColor auto="1" indexed="64"/>
       </patternFill>
     </fill>
@@ -214,17 +199,17 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" indent="0" relativeIndent="0" readingOrder="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" relativeIndent="0" readingOrder="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" indent="0" relativeIndent="0" readingOrder="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" indent="0" relativeIndent="0" readingOrder="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" indent="0" relativeIndent="0" readingOrder="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" relativeIndent="0" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -524,7 +509,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScalePageLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -538,437 +523,367 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.5" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3">
+        <v>11.76</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>8.82</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B6" s="2">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="4">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="s">
+      <c r="B11" s="4">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="4">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="2">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="4">
+        <v>6</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="2">
+        <v>10</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4">
+        <v>8</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="2">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="4">
+        <v>8</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="2">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="4">
+        <v>12</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="2">
+        <v>5</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="4">
+        <v>9</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B24" s="2">
         <v>6</v>
       </c>
-      <c r="C2" s="4">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3">
-        <v>10.26</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="5">
-        <v>4</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1">
-        <v>7.69</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="4">
+      <c r="B25" s="4">
+        <v>10</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="2">
         <v>9</v>
       </c>
-      <c r="C4" s="4">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5">
-        <v>8</v>
-      </c>
-      <c r="C5" s="5">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="4">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="5">
-        <v>10</v>
-      </c>
-      <c r="C7" s="5">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="4">
-        <v>3</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3">
-        <v>2.56</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="5">
-        <v>8</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2.56</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="4">
-        <v>5</v>
-      </c>
-      <c r="C10" s="4">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3">
-        <v>2.56</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="5">
-        <v>10</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2.56</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="4">
-        <v>8</v>
-      </c>
-      <c r="C12" s="4">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3">
-        <v>2.56</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="5">
-        <v>7</v>
-      </c>
-      <c r="C13" s="5">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2.56</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="4">
-        <v>10</v>
-      </c>
-      <c r="C14" s="4">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3">
-        <v>2.56</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="5">
-        <v>5</v>
-      </c>
-      <c r="C15" s="5">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2.56</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="4">
-        <v>10</v>
-      </c>
-      <c r="C16" s="4">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3">
-        <v>2.56</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="5">
-        <v>10</v>
-      </c>
-      <c r="C17" s="5">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1">
-        <v>2.56</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="4">
-        <v>9</v>
-      </c>
-      <c r="C18" s="4">
-        <v>1</v>
-      </c>
-      <c r="D18" s="3">
-        <v>2.56</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="5">
-        <v>6</v>
-      </c>
-      <c r="C19" s="5">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1">
-        <v>2.56</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="4">
-        <v>10</v>
-      </c>
-      <c r="C20" s="4">
-        <v>1</v>
-      </c>
-      <c r="D20" s="3">
-        <v>2.56</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="5">
-        <v>8</v>
-      </c>
-      <c r="C21" s="5">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1">
-        <v>2.56</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="4">
-        <v>5</v>
-      </c>
-      <c r="C22" s="4">
-        <v>1</v>
-      </c>
-      <c r="D22" s="3">
-        <v>2.56</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="5">
-        <v>8</v>
-      </c>
-      <c r="C23" s="5">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1">
-        <v>2.56</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="4">
-        <v>5</v>
-      </c>
-      <c r="C24" s="4">
-        <v>1</v>
-      </c>
-      <c r="D24" s="3">
-        <v>2.56</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="5">
-        <v>10</v>
-      </c>
-      <c r="C25" s="5">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1">
-        <v>2.56</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="4">
-        <v>12</v>
-      </c>
-      <c r="C26" s="4">
+      <c r="C26" s="2">
         <v>1</v>
       </c>
       <c r="D26" s="3">
-        <v>2.56</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="5">
-        <v>5</v>
-      </c>
-      <c r="C27" s="5">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1">
-        <v>2.56</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="4">
-        <v>9</v>
-      </c>
-      <c r="C28" s="4">
-        <v>1</v>
-      </c>
-      <c r="D28" s="3">
-        <v>2.56</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="5">
-        <v>6</v>
-      </c>
-      <c r="C29" s="5">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1">
-        <v>2.56</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" s="4">
-        <v>10</v>
-      </c>
-      <c r="C30" s="4">
-        <v>1</v>
-      </c>
-      <c r="D30" s="3">
-        <v>2.56</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="5">
-        <v>9</v>
-      </c>
-      <c r="C31" s="5">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1">
-        <v>2.56</v>
+        <v>2.94</v>
       </c>
     </row>
   </sheetData>
